--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pomc-Oprm1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pomc-Oprm1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,16 +79,13 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>Pomc</t>
+  </si>
+  <si>
+    <t>Oprm1</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Pomc</t>
-  </si>
-  <si>
-    <t>Oprm1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>1.4951615</v>
+        <v>0.8055585</v>
       </c>
       <c r="H2">
-        <v>2.990323</v>
+        <v>1.611117</v>
       </c>
       <c r="I2">
-        <v>0.6020739711267923</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.5021622551131892</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.05215766666666666</v>
+        <v>1.896219333333333</v>
       </c>
       <c r="N2">
-        <v>0.156473</v>
+        <v>5.688658</v>
       </c>
       <c r="O2">
-        <v>0.1010355835763341</v>
+        <v>0.9918549325388253</v>
       </c>
       <c r="P2">
-        <v>0.1010355835763341</v>
+        <v>0.9918549325388253</v>
       </c>
       <c r="Q2">
-        <v>0.07798413512983332</v>
+        <v>1.527515601831</v>
       </c>
       <c r="R2">
-        <v>0.4679048107789999</v>
+        <v>9.165093610986</v>
       </c>
       <c r="S2">
-        <v>0.06083089502891639</v>
+        <v>0.9918549325388253</v>
       </c>
       <c r="T2">
-        <v>0.05073625649536904</v>
+        <v>0.9918549325388253</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,185 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>1.4951615</v>
+        <v>0.8055585</v>
       </c>
       <c r="H3">
-        <v>2.990323</v>
+        <v>1.611117</v>
       </c>
       <c r="I3">
-        <v>0.6020739711267923</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.5021622551131892</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.464073</v>
+        <v>0.01557166666666667</v>
       </c>
       <c r="N3">
-        <v>1.392219</v>
+        <v>0.046715</v>
       </c>
       <c r="O3">
-        <v>0.8989644164236659</v>
+        <v>0.008145067461174712</v>
       </c>
       <c r="P3">
-        <v>0.8989644164236659</v>
+        <v>0.008145067461174714</v>
       </c>
       <c r="Q3">
-        <v>0.6938640827894998</v>
+        <v>0.0125438884425</v>
       </c>
       <c r="R3">
-        <v>4.163184496736999</v>
+        <v>0.075263330655</v>
       </c>
       <c r="S3">
-        <v>0.5412430760978759</v>
+        <v>0.008145067461174712</v>
       </c>
       <c r="T3">
-        <v>0.4514259986178202</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.9881903333333333</v>
-      </c>
-      <c r="H4">
-        <v>2.964571</v>
-      </c>
-      <c r="I4">
-        <v>0.3979260288732078</v>
-      </c>
-      <c r="J4">
-        <v>0.4978377448868108</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M4">
-        <v>0.05215766666666666</v>
-      </c>
-      <c r="N4">
-        <v>0.156473</v>
-      </c>
-      <c r="O4">
-        <v>0.1010355835763341</v>
-      </c>
-      <c r="P4">
-        <v>0.1010355835763341</v>
-      </c>
-      <c r="Q4">
-        <v>0.05154170200922222</v>
-      </c>
-      <c r="R4">
-        <v>0.463875318083</v>
-      </c>
-      <c r="S4">
-        <v>0.04020468854741772</v>
-      </c>
-      <c r="T4">
-        <v>0.05029932708096507</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.9881903333333333</v>
-      </c>
-      <c r="H5">
-        <v>2.964571</v>
-      </c>
-      <c r="I5">
-        <v>0.3979260288732078</v>
-      </c>
-      <c r="J5">
-        <v>0.4978377448868108</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.464073</v>
-      </c>
-      <c r="N5">
-        <v>1.392219</v>
-      </c>
-      <c r="O5">
-        <v>0.8989644164236659</v>
-      </c>
-      <c r="P5">
-        <v>0.8989644164236659</v>
-      </c>
-      <c r="Q5">
-        <v>0.458592452561</v>
-      </c>
-      <c r="R5">
-        <v>4.127332073049</v>
-      </c>
-      <c r="S5">
-        <v>0.3577213403257901</v>
-      </c>
-      <c r="T5">
-        <v>0.4475384178058457</v>
+        <v>0.008145067461174714</v>
       </c>
     </row>
   </sheetData>
